--- a/regions_data/Surowce/pie_chart_data/Zużycie lekkiego oleju opałowego.xlsx
+++ b/regions_data/Surowce/pie_chart_data/Zużycie lekkiego oleju opałowego.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Nazwa wycinka</t>
+  </si>
   <si>
     <t xml:space="preserve">Dolnośląskie</t>
   </si>
@@ -193,7 +196,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -201,7 +204,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -225,20 +228,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="B1:R8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -286,13 +288,13 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -304,16 +306,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -325,48 +327,48 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>0</v>
@@ -375,13 +377,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="n">
         <v>0</v>
@@ -392,66 +394,66 @@
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="E4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="H4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N4" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="O4" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -498,13 +500,13 @@
       <c r="Q5" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>5</v>
+      <c r="R5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5</v>
@@ -513,148 +515,151 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="J6" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q6" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>5</v>
+      <c r="R6" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="H7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I7" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="J7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N7" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="O7" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Q7" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>22</v>
+      <c r="R7" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="G8" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="K8" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="L8" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="M8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="N8" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="O8" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="P8" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="Q8" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>15</v>
       </c>
     </row>
